--- a/BackTest/2020-01-26 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-26 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -814,7 +814,7 @@
         <v>16502.08358687</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>16785.80858687</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>16619.29758687</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>16462.76388687001</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>24215.80808687001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>24215.80808687001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>24202.94218687001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>24202.94218687001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>24299.94218687001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>24258.34398687001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>26236.36998687001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>26198.38428687001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>26297.38428687001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>26265.58428687001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>26147.86438687001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>27192.12038687001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>27612.70748687001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>27838.65178687001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>27468.81238687001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>27682.88988687001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>27682.88988687001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>27682.88988687001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>27173.14768687001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>27173.14768687001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>26442.24358687001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>26641.24358687001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>27223.70768687001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>27136.76668687001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>27211.07438687002</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>26986.67438687001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>24559.73358687001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>24546.83978687001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>24046.83978687001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>24406.52328687001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>25960.91138687001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>26010.60098687001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>25723.79858687001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>25722.79858687001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>26582.75008687001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>25986.35888687001</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>25986.35888687001</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>26072.28798687001</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>26061.10478687001</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>25965.10478687001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>25965.10478687001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>25965.10478687001</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>25293.10478687001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>25483.74778687001</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>25483.74778687001</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>32801.54650675002</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>32891.24500675002</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>33108.63060675002</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>32350.14190675002</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>32327.81870675002</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>25349.59640675002</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>25396.08290675002</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>24920.08290675002</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5632,11 +5632,17 @@
         <v>21767.79740675002</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>2153</v>
+      </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5671,17 @@
         <v>21867.79730675002</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>2153</v>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +5714,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5735,7 +5751,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5784,17 @@
         <v>22130.01830675002</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>2157</v>
+      </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +5823,17 @@
         <v>20369.93500675002</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>2158</v>
+      </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +5862,17 @@
         <v>20544.93640675002</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>2154</v>
+      </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +5901,17 @@
         <v>21515.22900675002</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>2155</v>
+      </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +5940,17 @@
         <v>22627.15530675002</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>2169</v>
+      </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5933,7 +5983,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5966,7 +6020,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6057,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6032,7 +6094,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6065,7 +6131,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6098,7 +6168,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6131,7 +6205,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6164,7 +6242,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6197,7 +6279,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6230,7 +6316,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6263,7 +6353,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6296,7 +6390,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6329,7 +6427,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6362,7 +6464,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6395,7 +6501,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6428,7 +6538,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6461,7 +6575,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6494,7 +6612,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +6649,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +6686,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +6723,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,7 +6760,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6659,7 +6797,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6692,7 +6834,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6725,7 +6871,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +6908,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6791,7 +6945,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6824,7 +6982,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6857,7 +7019,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6890,7 +7056,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6923,7 +7093,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6956,7 +7130,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7163,17 @@
         <v>43170.29570675002</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>2162</v>
+      </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7202,17 @@
         <v>43170.29570675002</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>2166</v>
+      </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7241,17 @@
         <v>43170.29570675002</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>2166</v>
+      </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7084,11 +7280,17 @@
         <v>44018.08320675002</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>2166</v>
+      </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7117,11 +7319,17 @@
         <v>44069.09910675001</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>2174</v>
+      </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7150,11 +7358,17 @@
         <v>42469.09910675001</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>2175</v>
+      </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7183,11 +7397,17 @@
         <v>41028.59910675001</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>2169</v>
+      </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7216,11 +7436,17 @@
         <v>41141.42100675002</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>2168</v>
+      </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +7475,17 @@
         <v>40858.40410675001</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>2172</v>
+      </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +7514,17 @@
         <v>40858.40410675001</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>2170</v>
+      </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +7553,17 @@
         <v>40858.40410675001</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>2170</v>
+      </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +7592,17 @@
         <v>40858.40410675001</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>2170</v>
+      </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7631,17 @@
         <v>41516.82010675001</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>2170</v>
+      </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +7674,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +7711,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +7748,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +7785,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +7822,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +7859,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +7896,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +7933,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +7970,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +8007,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +8044,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +8081,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +8118,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +8155,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +8192,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8229,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8266,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8303,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8340,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8377,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8414,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8451,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8488,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +8525,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +8562,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8243,7 +8599,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8276,7 +8636,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8309,7 +8673,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8342,7 +8710,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8375,7 +8747,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8408,7 +8784,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8441,7 +8821,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +8858,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8507,7 +8895,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8540,7 +8932,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8573,7 +8969,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8606,7 +9006,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8639,7 +9043,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8672,7 +9080,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8705,7 +9117,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8738,7 +9154,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8771,7 +9191,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8804,7 +9228,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8837,7 +9265,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +9302,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8903,7 +9339,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8936,7 +9376,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +9413,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +9450,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9031,11 +9483,15 @@
         <v>39935.31260675002</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9064,11 +9520,15 @@
         <v>40020.05460675002</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9101,7 +9561,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9134,7 +9598,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9167,7 +9635,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9200,7 +9672,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9233,7 +9709,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9266,7 +9746,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9299,7 +9783,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9332,7 +9820,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9365,7 +9857,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9398,7 +9894,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9431,7 +9931,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9464,7 +9968,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9497,7 +10005,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9530,7 +10042,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9563,7 +10079,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9596,7 +10116,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9629,7 +10153,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9662,7 +10190,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9695,7 +10227,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9728,7 +10264,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9761,7 +10301,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9794,7 +10338,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9827,7 +10375,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9860,7 +10412,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9893,7 +10449,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9926,7 +10486,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9959,7 +10523,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9992,7 +10560,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10025,7 +10597,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10058,7 +10634,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10091,7 +10671,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10124,7 +10708,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10157,7 +10745,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10190,7 +10782,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10223,7 +10819,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10256,7 +10856,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10289,7 +10893,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10322,7 +10930,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10355,7 +10967,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10388,7 +11004,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10421,7 +11041,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10454,7 +11078,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10487,7 +11115,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10520,7 +11152,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10553,7 +11189,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10586,7 +11226,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10619,7 +11263,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10652,7 +11300,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10685,7 +11337,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10718,7 +11374,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10751,7 +11411,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +11448,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10817,7 +11485,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10850,7 +11522,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10883,7 +11559,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10916,7 +11596,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10949,7 +11633,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10982,7 +11670,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11015,7 +11707,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11048,7 +11744,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11081,7 +11781,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +11818,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11147,7 +11855,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11180,7 +11892,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11213,7 +11929,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11246,7 +11966,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11279,7 +12003,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11312,7 +12040,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11345,7 +12077,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +12114,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11411,7 +12151,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11444,7 +12188,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11477,7 +12225,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11510,7 +12262,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11543,7 +12299,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11576,7 +12336,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11605,11 +12369,15 @@
         <v>57498.11960675</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11638,11 +12406,15 @@
         <v>57680.51130675</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11675,7 +12447,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11708,7 +12484,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11737,11 +12517,15 @@
         <v>57650.54020675</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11774,7 +12558,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11807,7 +12595,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11840,7 +12632,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11869,11 +12665,15 @@
         <v>60805.60610675</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11902,11 +12702,15 @@
         <v>58948.79210675</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11939,7 +12743,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11968,14 +12776,16 @@
         <v>59244.46670675</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L351" t="inlineStr"/>
       <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
@@ -12001,7 +12811,7 @@
         <v>59244.46670675</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12844,7 @@
         <v>59244.46670675</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12877,7 @@
         <v>59269.99980675</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12910,7 @@
         <v>59269.99980675</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12943,7 @@
         <v>59269.99980675</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12976,7 @@
         <v>59269.99980675</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +13009,7 @@
         <v>60704.56560674999</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +13042,7 @@
         <v>60537.77960674999</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +13075,7 @@
         <v>60525.85360675</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +13108,7 @@
         <v>60309.17680674999</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +13141,7 @@
         <v>60309.17680674999</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +13174,7 @@
         <v>60809.17680674999</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +13207,7 @@
         <v>60792.90960674999</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +13240,7 @@
         <v>60792.90960674999</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +13273,7 @@
         <v>60775.22710674999</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +13306,7 @@
         <v>60775.22710674999</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +13339,7 @@
         <v>60222.14330674999</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +13372,7 @@
         <v>59956.93330674999</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +13405,7 @@
         <v>59975.27680674999</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +13438,7 @@
         <v>60066.92790675</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +13471,7 @@
         <v>60035.08110675</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12826,7 +13636,7 @@
         <v>55190.42980675</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +13669,7 @@
         <v>55191.42980675</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +13702,7 @@
         <v>55178.62180675</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +13735,7 @@
         <v>54988.65610675</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +13768,7 @@
         <v>54988.65610675</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +13801,7 @@
         <v>54988.65610675</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13834,7 @@
         <v>44078.39180675</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13867,7 @@
         <v>44267.39180675</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13900,7 @@
         <v>43494.09180675</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13933,7 @@
         <v>43003.73140675</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13966,7 @@
         <v>46027.91900674999</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13999,7 @@
         <v>45558.53090675</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +14032,7 @@
         <v>45108.30110675</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +14065,7 @@
         <v>41301.22740675</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +14098,7 @@
         <v>41383.61970675</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +14131,7 @@
         <v>41201.56270675</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +14164,7 @@
         <v>41274.64180675</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +14197,7 @@
         <v>41274.64180675</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +14230,7 @@
         <v>41274.64180675</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +14263,7 @@
         <v>41073.64180675</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +14296,7 @@
         <v>43463.13720675</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +14329,7 @@
         <v>43463.13720675</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +14362,7 @@
         <v>41430.04020675</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13684,7 +14494,7 @@
         <v>39323.13060675</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +14527,7 @@
         <v>39323.13060675</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14344,17 +15154,11 @@
         <v>36222.96790675</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
-      </c>
-      <c r="I423" t="n">
-        <v>2147</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14383,17 +15187,11 @@
         <v>36427.96790675</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
-      </c>
-      <c r="I424" t="n">
-        <v>2150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14422,23 +15220,17 @@
         <v>36468.11330675</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
-      </c>
-      <c r="I425" t="n">
-        <v>2158</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
       <c r="M425" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-26 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2695,7 +2695,7 @@
         <v>24215.80808687001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>24215.80808687001</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>24202.94218687001</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>24202.94218687001</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>24299.94218687001</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>24258.34398687001</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>26236.36998687001</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>26198.38428687001</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>26297.38428687001</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>26265.58428687001</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>26147.86438687001</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>27192.12038687001</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>27612.70748687001</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>27838.65178687001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>27468.81238687001</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>27682.88988687001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>27682.88988687001</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>27682.88988687001</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>27173.14768687001</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>27173.14768687001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>26442.24358687001</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>26641.24358687001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>27223.70768687001</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>27136.76668687001</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>27211.07438687002</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>26986.67438687001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>24559.73358687001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>24546.83978687001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>24046.83978687001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>24406.52328687001</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>25960.91138687001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>26010.60098687001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>25723.79858687001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>25722.79858687001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>26582.75008687001</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>25986.35888687001</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>25986.35888687001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>26072.28798687001</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>26061.10478687001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>25965.10478687001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>25965.10478687001</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>25293.10478687001</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>25483.74778687001</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5533,11 +5533,17 @@
         <v>21967.79740675002</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>2162</v>
+      </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5572,17 @@
         <v>21767.79740675002</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>2159</v>
+      </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5611,17 @@
         <v>21767.79740675002</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>2153</v>
+      </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5640,7 +5658,7 @@
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L159" t="n">
@@ -5710,9 +5728,11 @@
         <v>21568.80300675002</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>2161</v>
+      </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -5747,9 +5767,11 @@
         <v>21160.27360675002</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>2158</v>
+      </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -5940,11 +5962,9 @@
         <v>22627.15530675002</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>2169</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -7163,11 +7183,9 @@
         <v>43170.29570675002</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>2162</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
@@ -7202,11 +7220,9 @@
         <v>43170.29570675002</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>2166</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
@@ -7241,20 +7257,16 @@
         <v>43170.29570675002</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>2166</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
@@ -7280,17 +7292,11 @@
         <v>44018.08320675002</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>2166</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7319,17 +7325,11 @@
         <v>44069.09910675001</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>2174</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7358,17 +7358,11 @@
         <v>42469.09910675001</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>2175</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7397,17 +7391,11 @@
         <v>41028.59910675001</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>2169</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7436,17 +7424,11 @@
         <v>41141.42100675002</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>2168</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7475,17 +7457,11 @@
         <v>40858.40410675001</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>2172</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7514,17 +7490,11 @@
         <v>40858.40410675001</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>2170</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7553,17 +7523,11 @@
         <v>40858.40410675001</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>2170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7592,17 +7556,11 @@
         <v>40858.40410675001</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>2170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7631,17 +7589,11 @@
         <v>41516.82010675001</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>2170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7674,11 +7626,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7711,11 +7659,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7748,11 +7692,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7785,11 +7725,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7822,11 +7758,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7859,11 +7791,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7896,11 +7824,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7933,11 +7857,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7970,11 +7890,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8007,11 +7923,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8044,11 +7956,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8081,11 +7989,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8118,11 +8022,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8155,11 +8055,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8192,11 +8088,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8229,11 +8121,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8266,11 +8154,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8303,11 +8187,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8340,11 +8220,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8377,11 +8253,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8414,11 +8286,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8451,11 +8319,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8488,11 +8352,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8525,11 +8385,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8562,11 +8418,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8599,11 +8451,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8636,11 +8484,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8673,11 +8517,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8710,11 +8550,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8747,11 +8583,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8784,11 +8616,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8821,11 +8649,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8858,11 +8682,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8895,11 +8715,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8932,11 +8748,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8969,11 +8781,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9006,11 +8814,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9043,11 +8847,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9080,11 +8880,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9117,11 +8913,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9154,11 +8946,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9191,11 +8979,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9228,11 +9012,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9265,11 +9045,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9302,11 +9078,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9339,11 +9111,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9376,11 +9144,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9413,11 +9177,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9450,11 +9210,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9487,11 +9243,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9524,11 +9276,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9561,11 +9309,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9598,11 +9342,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9635,11 +9375,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9672,11 +9408,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9709,11 +9441,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9746,11 +9474,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9783,11 +9507,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9820,11 +9540,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9857,11 +9573,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9894,11 +9606,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9931,11 +9639,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9968,11 +9672,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10005,11 +9705,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10042,11 +9738,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10079,11 +9771,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10116,11 +9804,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10153,11 +9837,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10190,11 +9870,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10227,11 +9903,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10264,11 +9936,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10301,11 +9969,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10338,11 +10002,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10371,15 +10031,11 @@
         <v>46869.64510675001</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10408,15 +10064,11 @@
         <v>46864.64510675001</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10445,15 +10097,11 @@
         <v>47267.17920675001</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10482,15 +10130,11 @@
         <v>47246.12340675</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10519,15 +10163,11 @@
         <v>46382.20390675</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10556,15 +10196,11 @@
         <v>46382.20390675</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10593,15 +10229,11 @@
         <v>46397.67460675</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10630,15 +10262,11 @@
         <v>46381.71500675</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10667,15 +10295,11 @@
         <v>46381.71500675</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10704,15 +10328,11 @@
         <v>46097.07260675</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10741,15 +10361,11 @@
         <v>46097.07260675</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10782,11 +10398,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10819,11 +10431,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10856,11 +10464,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10893,11 +10497,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10930,11 +10530,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10967,11 +10563,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11000,15 +10592,11 @@
         <v>46446.07250675</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11037,15 +10625,11 @@
         <v>46446.07250675</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11078,11 +10662,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11111,15 +10691,11 @@
         <v>46336.39710675</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11148,15 +10724,11 @@
         <v>46336.39710675</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11189,11 +10761,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11226,11 +10794,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11259,15 +10823,11 @@
         <v>46339.18000675</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11300,11 +10860,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11337,11 +10893,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11374,11 +10926,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11411,11 +10959,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11448,11 +10992,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11485,11 +11025,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11522,11 +11058,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11559,11 +11091,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11596,11 +11124,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11633,11 +11157,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11670,11 +11190,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11707,11 +11223,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11744,11 +11256,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11781,11 +11289,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11818,11 +11322,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11855,11 +11355,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11892,11 +11388,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11929,11 +11421,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11966,11 +11454,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12003,11 +11487,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12040,11 +11520,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12077,11 +11553,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12114,11 +11586,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12151,11 +11619,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12188,11 +11652,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12225,11 +11685,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12262,11 +11718,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12299,11 +11751,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12332,15 +11780,11 @@
         <v>57507.25530675</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12369,15 +11813,11 @@
         <v>57498.11960675</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12406,15 +11846,11 @@
         <v>57680.51130675</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12443,15 +11879,11 @@
         <v>57680.51130675</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12480,15 +11912,11 @@
         <v>57680.51130675</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12517,15 +11945,11 @@
         <v>57650.54020675</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12554,15 +11978,11 @@
         <v>57650.54020675</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12591,15 +12011,11 @@
         <v>59249.94420675</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12628,15 +12044,11 @@
         <v>60788.83120675</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12665,15 +12077,11 @@
         <v>60805.60610675</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12706,11 +12114,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12743,11 +12147,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12780,12 +12180,10 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
       <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
@@ -12910,7 +12308,7 @@
         <v>59269.99980675</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12943,7 +12341,7 @@
         <v>59269.99980675</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12976,7 +12374,7 @@
         <v>59269.99980675</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13009,7 +12407,7 @@
         <v>60704.56560674999</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13042,7 +12440,7 @@
         <v>60537.77960674999</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13075,7 +12473,7 @@
         <v>60525.85360675</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13108,7 +12506,7 @@
         <v>60309.17680674999</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13339,7 +12737,7 @@
         <v>60222.14330674999</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13372,7 +12770,7 @@
         <v>59956.93330674999</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13405,7 +12803,7 @@
         <v>59975.27680674999</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13504,7 +12902,7 @@
         <v>60035.08110675</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13636,7 +13034,7 @@
         <v>55190.42980675</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13669,7 +13067,7 @@
         <v>55191.42980675</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13702,7 +13100,7 @@
         <v>55178.62180675</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13735,7 +13133,7 @@
         <v>54988.65610675</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13768,7 +13166,7 @@
         <v>54988.65610675</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13801,7 +13199,7 @@
         <v>54988.65610675</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13834,7 +13232,7 @@
         <v>44078.39180675</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13867,7 +13265,7 @@
         <v>44267.39180675</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13900,7 +13298,7 @@
         <v>43494.09180675</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13933,7 +13331,7 @@
         <v>43003.73140675</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13966,7 +13364,7 @@
         <v>46027.91900674999</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13999,7 +13397,7 @@
         <v>45558.53090675</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14032,7 +13430,7 @@
         <v>45108.30110675</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14065,7 +13463,7 @@
         <v>41301.22740675</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14098,7 +13496,7 @@
         <v>41383.61970675</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14131,7 +13529,7 @@
         <v>41201.56270675</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14164,7 +13562,7 @@
         <v>41274.64180675</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14197,7 +13595,7 @@
         <v>41274.64180675</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14230,7 +13628,7 @@
         <v>41274.64180675</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14263,7 +13661,7 @@
         <v>41073.64180675</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14296,7 +13694,7 @@
         <v>43463.13720675</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14329,7 +13727,7 @@
         <v>43463.13720675</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14362,7 +13760,7 @@
         <v>41430.04020675</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14494,7 +13892,7 @@
         <v>39323.13060675</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14527,7 +13925,7 @@
         <v>39323.13060675</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15231,6 +14629,6 @@
       <c r="M425" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-26 BackTest QTUM.xlsx
@@ -583,10 +583,14 @@
         <v>16982.84058687</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2200</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2200</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -619,8 +623,14 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +659,19 @@
         <v>16494.22338687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2195</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,10 +700,14 @@
         <v>16394.22338687</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2195</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2195</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -715,11 +737,19 @@
         <v>16528.92108687</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2190</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +778,19 @@
         <v>16502.08358687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2191</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,10 +819,14 @@
         <v>16502.08358687</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2190</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2190</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -814,11 +856,19 @@
         <v>16502.08358687</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2190</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2190</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +897,19 @@
         <v>16785.80858687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2190</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2190</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,10 +938,14 @@
         <v>16619.29758687</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2196</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2196</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -913,11 +975,19 @@
         <v>16593.34738687</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2195</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2196</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1016,19 @@
         <v>16593.34738687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2194</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2196</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,10 +1057,14 @@
         <v>16593.34738687</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2194</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2194</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1012,11 +1094,19 @@
         <v>16382.76038687</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2194</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2194</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1135,19 @@
         <v>16459.25338687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2193</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2194</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1176,19 @@
         <v>16459.25338687</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2198</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2194</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1217,19 @@
         <v>15095.91918687</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2198</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2194</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1258,19 @@
         <v>15144.18658687</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2195</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2194</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1299,19 @@
         <v>15167.87058687</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2203</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2194</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1343,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>2194</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1382,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>2194</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1421,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>2194</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1460,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>2194</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1499,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>2194</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1538,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>2194</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1577,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>2194</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1616,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>2194</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1655,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>2194</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1694,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>2194</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1733,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>2194</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,13 +1769,19 @@
         <v>15982.24298687</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>2194</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>1.007762078395624</v>
       </c>
       <c r="M36" t="inlineStr"/>
     </row>
@@ -1606,7 +1808,7 @@
         <v>15702.24298687</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1837,7 +2039,7 @@
         <v>16401.94898687001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +2072,7 @@
         <v>16284.58238687001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1969,10 +2171,14 @@
         <v>16106.22828687001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2207</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2207</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
@@ -2002,11 +2208,19 @@
         <v>16106.22828687001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2204</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2207</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2249,19 @@
         <v>16031.17058687001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2204</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2207</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2290,19 @@
         <v>16031.17058687001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2202</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2207</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2331,19 @@
         <v>16031.17058687001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2202</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2207</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2372,19 @@
         <v>15986.90098687001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2202</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2207</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2413,19 @@
         <v>15986.90098687001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2200</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2207</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2454,19 @@
         <v>15986.90098687001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2200</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2207</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2495,19 @@
         <v>15986.90098687001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2200</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2207</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2536,19 @@
         <v>15947.87578687001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2200</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2207</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2577,19 @@
         <v>17349.70768687001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2197</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2207</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2618,19 @@
         <v>17349.70768687001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2201</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2207</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2659,19 @@
         <v>17673.05828687001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2201</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2207</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2700,19 @@
         <v>18321.87008687001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2213</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2207</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2744,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>2207</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2780,19 @@
         <v>22063.31078687001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2207</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2207</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,13 +2821,19 @@
         <v>23663.53558687001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>2207</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>1.000890348889896</v>
       </c>
       <c r="M64" t="inlineStr"/>
     </row>
@@ -2530,11 +2860,17 @@
         <v>23372.26868687001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>2207</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,7 +2899,7 @@
         <v>23575.26868687001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2932,7 @@
         <v>23830.90858687001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2998,7 @@
         <v>24215.80808687001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +3031,7 @@
         <v>24215.80808687001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +3064,7 @@
         <v>24215.80808687001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +3097,7 @@
         <v>24202.94218687001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3190,7 +3526,7 @@
         <v>27682.88988687001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3421,7 +3757,7 @@
         <v>27223.70768687001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3790,7 @@
         <v>27136.76668687001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -5335,11 +5671,17 @@
         <v>29915.80190675002</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>2162</v>
+      </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5710,17 @@
         <v>25349.59640675002</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2161</v>
+      </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +5753,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +5790,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +5827,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +5864,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,15 +5897,13 @@
         <v>21967.79740675002</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>2162</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -7257,16 +7619,18 @@
         <v>43170.29570675002</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L202" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
       <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
@@ -7292,11 +7656,15 @@
         <v>44018.08320675002</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7325,11 +7693,15 @@
         <v>44069.09910675001</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7358,11 +7730,15 @@
         <v>42469.09910675001</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7391,11 +7767,15 @@
         <v>41028.59910675001</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7424,11 +7804,15 @@
         <v>41141.42100675002</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7457,11 +7841,15 @@
         <v>40858.40410675001</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7490,11 +7878,15 @@
         <v>40858.40410675001</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7527,7 +7919,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7560,7 +7956,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7593,7 +7993,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7626,7 +8030,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7659,7 +8067,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7692,7 +8104,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7725,7 +8141,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7758,7 +8178,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7791,7 +8215,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7824,7 +8252,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7857,7 +8289,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7890,7 +8326,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7923,7 +8363,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7956,7 +8400,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7989,7 +8437,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8022,7 +8474,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8055,7 +8511,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8088,7 +8548,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8121,7 +8585,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8154,7 +8622,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8187,7 +8659,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8220,7 +8696,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8253,7 +8733,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8286,7 +8770,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8319,7 +8807,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8352,7 +8844,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8385,7 +8881,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8418,7 +8918,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8451,7 +8955,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8484,7 +8992,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8517,7 +9029,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8550,7 +9066,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8583,7 +9103,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8616,7 +9140,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8649,7 +9177,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8682,7 +9214,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8715,7 +9251,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8748,7 +9288,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8781,7 +9325,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8814,7 +9362,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8847,7 +9399,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8880,7 +9436,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8913,7 +9473,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8946,7 +9510,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8979,7 +9547,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9012,7 +9584,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9045,7 +9621,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9078,7 +9658,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9111,7 +9695,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9144,7 +9732,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9177,7 +9769,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9210,7 +9806,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9243,7 +9843,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9276,7 +9880,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9309,7 +9917,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9342,7 +9954,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9375,7 +9991,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9408,7 +10028,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9441,7 +10065,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9474,7 +10102,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9507,7 +10139,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9540,7 +10176,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9573,7 +10213,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9606,7 +10250,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9639,7 +10287,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9672,7 +10324,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9705,7 +10361,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9738,7 +10398,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9771,7 +10435,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9804,7 +10472,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9837,7 +10509,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9870,7 +10546,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9903,7 +10583,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9936,7 +10620,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9969,7 +10657,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10002,7 +10694,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10031,11 +10727,15 @@
         <v>46869.64510675001</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10064,11 +10764,15 @@
         <v>46864.64510675001</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10097,11 +10801,15 @@
         <v>47267.17920675001</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10130,11 +10838,15 @@
         <v>47246.12340675</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10163,11 +10875,15 @@
         <v>46382.20390675</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10196,11 +10912,15 @@
         <v>46382.20390675</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10229,11 +10949,15 @@
         <v>46397.67460675</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10262,11 +10986,15 @@
         <v>46381.71500675</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10295,11 +11023,15 @@
         <v>46381.71500675</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10328,11 +11060,15 @@
         <v>46097.07260675</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10361,11 +11097,15 @@
         <v>46097.07260675</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10398,7 +11138,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10431,7 +11175,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10464,7 +11212,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10497,7 +11249,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10530,7 +11286,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10563,7 +11323,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10592,11 +11356,15 @@
         <v>46446.07250675</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10625,11 +11393,15 @@
         <v>46446.07250675</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10662,7 +11434,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10691,11 +11467,15 @@
         <v>46336.39710675</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10724,11 +11504,15 @@
         <v>46336.39710675</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10761,7 +11545,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10794,7 +11582,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10823,11 +11615,15 @@
         <v>46339.18000675</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10860,7 +11656,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10893,7 +11693,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10926,7 +11730,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10959,7 +11767,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10992,7 +11804,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11025,7 +11841,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11058,7 +11878,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11091,7 +11915,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11124,7 +11952,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11157,7 +11989,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11190,7 +12026,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11223,7 +12063,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11256,7 +12100,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11289,7 +12137,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11322,7 +12174,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11355,7 +12211,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11388,7 +12248,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11421,7 +12285,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11454,7 +12322,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11487,7 +12359,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11520,7 +12396,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11553,7 +12433,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11586,7 +12470,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11619,7 +12507,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11652,7 +12544,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11685,7 +12581,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11718,7 +12618,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11751,7 +12655,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11780,11 +12688,15 @@
         <v>57507.25530675</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11813,11 +12725,15 @@
         <v>57498.11960675</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11846,11 +12762,15 @@
         <v>57680.51130675</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11879,11 +12799,15 @@
         <v>57680.51130675</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11912,11 +12836,15 @@
         <v>57680.51130675</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11945,11 +12873,15 @@
         <v>57650.54020675</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11978,11 +12910,15 @@
         <v>57650.54020675</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12011,11 +12947,15 @@
         <v>59249.94420675</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12044,11 +12984,15 @@
         <v>60788.83120675</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12077,11 +13021,15 @@
         <v>60805.60610675</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12114,7 +13062,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12143,14 +13095,16 @@
         <v>59244.46670675</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr"/>
       <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
@@ -12176,7 +13130,7 @@
         <v>59244.46670675</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12242,7 +13196,7 @@
         <v>59244.46670675</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12275,7 +13229,7 @@
         <v>59269.99980675</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12341,7 +13295,7 @@
         <v>59269.99980675</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12374,7 +13328,7 @@
         <v>59269.99980675</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12407,7 +13361,7 @@
         <v>60704.56560674999</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12440,7 +13394,7 @@
         <v>60537.77960674999</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12473,7 +13427,7 @@
         <v>60525.85360675</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12506,7 +13460,7 @@
         <v>60309.17680674999</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12737,7 +13691,7 @@
         <v>60222.14330674999</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12770,7 +13724,7 @@
         <v>59956.93330674999</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12803,7 +13757,7 @@
         <v>59975.27680674999</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12836,7 +13790,7 @@
         <v>60066.92790675</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12902,7 +13856,7 @@
         <v>60035.08110675</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
